--- a/biology/Mycologie/Boletus_frostii/Boletus_frostii.xlsx
+++ b/biology/Mycologie/Boletus_frostii/Boletus_frostii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boletus frostii est une espèce de champignons basidiomycètes qui fait partie du genre Boletus dans la famille des Boletaceae.
 On le trouve en abondance en juillet dans des bois de feuillus clairsemés dans le centre du Mexique.
